--- a/R/data/BFI241111_v2.xlsx
+++ b/R/data/BFI241111_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE848B0-625F-234F-B241-3C5D476D8F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC526CA5-C0EF-2745-BFCF-0F057A83BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46940" yWindow="1360" windowWidth="50880" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46360" yWindow="2140" windowWidth="50880" windowHeight="26540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -3467,12 +3467,362 @@
         </r>
       </text>
     </comment>
+    <comment ref="H474" authorId="0" shapeId="0" xr:uid="{D7F28C08-8EFE-D448-A3D2-B2AE2904F697}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I474" authorId="0" shapeId="0" xr:uid="{B1659AB4-8116-2644-9CB3-966BD35E355A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L474" authorId="0" shapeId="0" xr:uid="{140FB0C3-FACC-3643-936E-050CFD173B24}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M474" authorId="0" shapeId="0" xr:uid="{DC1C94C1-D8EF-704C-A142-90E115578508}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O474" authorId="0" shapeId="0" xr:uid="{553B490C-C55C-E944-A3F9-A47347E3E39D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R474" authorId="0" shapeId="0" xr:uid="{5EC5945F-F700-884B-A780-B6452665B9B7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S474" authorId="0" shapeId="0" xr:uid="{AC5D7738-0D26-584E-BA28-551E439EDD3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T474" authorId="0" shapeId="0" xr:uid="{1EDE914C-2F16-FD46-89DC-5D59D1363316}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U474" authorId="0" shapeId="0" xr:uid="{C47EF999-0F4B-CC41-BBF2-13D6F319A9ED}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V474" authorId="0" shapeId="0" xr:uid="{7CB1192D-2088-964B-93F0-87F23F52AC65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W474" authorId="0" shapeId="0" xr:uid="{E9AF0A50-5A9C-ED43-AE74-339EF2B6F960}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y474" authorId="0" shapeId="0" xr:uid="{99F7C60A-FC21-FE46-B238-CB17919983E3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H486" authorId="0" shapeId="0" xr:uid="{05F0F410-7369-224E-9E92-2E11FB28C34B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I486" authorId="0" shapeId="0" xr:uid="{7FFEFC55-4067-4347-BA8E-C16484CD8159}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K486" authorId="0" shapeId="0" xr:uid="{128FDE61-D53D-974D-B24C-8213C3E31FD5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L486" authorId="0" shapeId="0" xr:uid="{EDDFC993-6247-4842-A5F6-C2C680364BC5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M486" authorId="0" shapeId="0" xr:uid="{33E90A9B-4F2C-B74A-9416-60461B70387A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N486" authorId="0" shapeId="0" xr:uid="{26BF602F-897B-9D4A-B1AD-13CD07E37627}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O486" authorId="0" shapeId="0" xr:uid="{20EAF3E3-F22B-1748-9518-489AFD7C1125}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q486" authorId="0" shapeId="0" xr:uid="{1E526F86-F841-C943-A561-2DFC60E21755}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R486" authorId="0" shapeId="0" xr:uid="{B59A475E-7C0A-C04E-990E-922A953F41B9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S486" authorId="0" shapeId="0" xr:uid="{459E1D98-DA37-E04E-A023-B9E2559D0C55}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U486" authorId="0" shapeId="0" xr:uid="{2E05782B-DC39-AC48-BCAC-CAB10054E8D3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V486" authorId="0" shapeId="0" xr:uid="{8722D625-B3B7-5E43-9A65-86556E4C636A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X486" authorId="0" shapeId="0" xr:uid="{543FAB27-3A54-A54D-87E5-123625CAA738}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>응답자가 이 값을 업데이트했습니다.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9248" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="1105">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -6595,6 +6945,198 @@
   </si>
   <si>
     <t>김소현</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>a01075976680@gmail.com</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>tpdkdb0401@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>데이ㅣ터사이언스</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>pintang@naver.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>jisung050407@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
   </si>
 </sst>
 </file>
@@ -7076,7 +7618,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AA462">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AA495">
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -7311,11 +7853,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA462"/>
+  <dimension ref="A1:AA495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45679,6 +46221,2745 @@
         <v>34</v>
       </c>
     </row>
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="7">
+        <v>45619.519096215277</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D463" s="8">
+        <v>20212820</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G463" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J463" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K463" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L463" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M463" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N463" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O463" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P463" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q463" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R463" s="8">
+        <v>8</v>
+      </c>
+      <c r="S463" s="8">
+        <v>5</v>
+      </c>
+      <c r="T463" s="8">
+        <v>8</v>
+      </c>
+      <c r="U463" s="8">
+        <v>4</v>
+      </c>
+      <c r="V463" s="8">
+        <v>7</v>
+      </c>
+      <c r="W463" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X463" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y463" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z463" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA463" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="4">
+        <v>45619.524684768519</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D464" s="5">
+        <v>20243624</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q464" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R464" s="5">
+        <v>4</v>
+      </c>
+      <c r="S464" s="5">
+        <v>4</v>
+      </c>
+      <c r="T464" s="5">
+        <v>4</v>
+      </c>
+      <c r="U464" s="5">
+        <v>3</v>
+      </c>
+      <c r="V464" s="5">
+        <v>4</v>
+      </c>
+      <c r="W464" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X464" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y464" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z464" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA464" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="7">
+        <v>45619.525154606483</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D465" s="8">
+        <v>20241730</v>
+      </c>
+      <c r="E465" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F465" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G465" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H465" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I465" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N465" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O465" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P465" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q465" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R465" s="8">
+        <v>5</v>
+      </c>
+      <c r="S465" s="8">
+        <v>3</v>
+      </c>
+      <c r="T465" s="8">
+        <v>4</v>
+      </c>
+      <c r="U465" s="8">
+        <v>5</v>
+      </c>
+      <c r="V465" s="8">
+        <v>4</v>
+      </c>
+      <c r="W465" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X465" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y465" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z465" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA465" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="4">
+        <v>45619.550135208337</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D466" s="5">
+        <v>20243309</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K466" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M466" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O466" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P466" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q466" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R466" s="5">
+        <v>6</v>
+      </c>
+      <c r="S466" s="5">
+        <v>4</v>
+      </c>
+      <c r="T466" s="5">
+        <v>5</v>
+      </c>
+      <c r="U466" s="5">
+        <v>8</v>
+      </c>
+      <c r="V466" s="5">
+        <v>4</v>
+      </c>
+      <c r="W466" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X466" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y466" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z466" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA466" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="7">
+        <v>45619.550203912033</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D467" s="8">
+        <v>20243214</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F467" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G467" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H467" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J467" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K467" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L467" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M467" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N467" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O467" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P467" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q467" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R467" s="8">
+        <v>8</v>
+      </c>
+      <c r="S467" s="8">
+        <v>4</v>
+      </c>
+      <c r="T467" s="8">
+        <v>5</v>
+      </c>
+      <c r="U467" s="8">
+        <v>11</v>
+      </c>
+      <c r="V467" s="8">
+        <v>10</v>
+      </c>
+      <c r="W467" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X467" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y467" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z467" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA467" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="4">
+        <v>45619.558661689814</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D468" s="5">
+        <v>20232728</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I468" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J468" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N468" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O468" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P468" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q468" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R468" s="5">
+        <v>7</v>
+      </c>
+      <c r="S468" s="5">
+        <v>10</v>
+      </c>
+      <c r="T468" s="5">
+        <v>11</v>
+      </c>
+      <c r="U468" s="5">
+        <v>8</v>
+      </c>
+      <c r="V468" s="5">
+        <v>3</v>
+      </c>
+      <c r="W468" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X468" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y468" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z468" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA468" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="7">
+        <v>45619.591149687505</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D469" s="8">
+        <v>20235213</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G469" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J469" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K469" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M469" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N469" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O469" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P469" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q469" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R469" s="8">
+        <v>7</v>
+      </c>
+      <c r="S469" s="8">
+        <v>10</v>
+      </c>
+      <c r="T469" s="8">
+        <v>4</v>
+      </c>
+      <c r="U469" s="8">
+        <v>12</v>
+      </c>
+      <c r="V469" s="8">
+        <v>5</v>
+      </c>
+      <c r="W469" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X469" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y469" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z469" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA469" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="4">
+        <v>45619.595849965277</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D470" s="5">
+        <v>20207133</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I470" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K470" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L470" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N470" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P470" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q470" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R470" s="5">
+        <v>6</v>
+      </c>
+      <c r="S470" s="5">
+        <v>10</v>
+      </c>
+      <c r="T470" s="5">
+        <v>7</v>
+      </c>
+      <c r="U470" s="5">
+        <v>8</v>
+      </c>
+      <c r="V470" s="5">
+        <v>15</v>
+      </c>
+      <c r="W470" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X470" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y470" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z470" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA470" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="7">
+        <v>45619.606461944444</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D471" s="8">
+        <v>20222238</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H471" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K471" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q471" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R471" s="8">
+        <v>7</v>
+      </c>
+      <c r="S471" s="8">
+        <v>7</v>
+      </c>
+      <c r="T471" s="8">
+        <v>6</v>
+      </c>
+      <c r="U471" s="8">
+        <v>8</v>
+      </c>
+      <c r="V471" s="8">
+        <v>8</v>
+      </c>
+      <c r="W471" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X471" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y471" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z471" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA471" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="4">
+        <v>45619.608260138892</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D472" s="5">
+        <v>20241509</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J472" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K472" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P472" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q472" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R472" s="5">
+        <v>3</v>
+      </c>
+      <c r="S472" s="5">
+        <v>2</v>
+      </c>
+      <c r="T472" s="5">
+        <v>3</v>
+      </c>
+      <c r="U472" s="5">
+        <v>4</v>
+      </c>
+      <c r="V472" s="5">
+        <v>4</v>
+      </c>
+      <c r="W472" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X472" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y472" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z472" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA472" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="7">
+        <v>45619.644045335648</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D473" s="8">
+        <v>20244110</v>
+      </c>
+      <c r="E473" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J473" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L473" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N473" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O473" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P473" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q473" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R473" s="8">
+        <v>9</v>
+      </c>
+      <c r="S473" s="8">
+        <v>9</v>
+      </c>
+      <c r="T473" s="8">
+        <v>9</v>
+      </c>
+      <c r="U473" s="8">
+        <v>9</v>
+      </c>
+      <c r="V473" s="8">
+        <v>9</v>
+      </c>
+      <c r="W473" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X473" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y473" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z473" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA473" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="4">
+        <v>45619.727330046298</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D474" s="5">
+        <v>20243234</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I474" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L474" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M474" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O474" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R474" s="5">
+        <v>6</v>
+      </c>
+      <c r="S474" s="5">
+        <v>7</v>
+      </c>
+      <c r="T474" s="5">
+        <v>6</v>
+      </c>
+      <c r="U474" s="5">
+        <v>7</v>
+      </c>
+      <c r="V474" s="5">
+        <v>7</v>
+      </c>
+      <c r="W474" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X474" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y474" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z474" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA474" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="7">
+        <v>45619.685974398148</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D475" s="8">
+        <v>20212971</v>
+      </c>
+      <c r="E475" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G475" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H475" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I475" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K475" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L475" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O475" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P475" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q475" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R475" s="8">
+        <v>3</v>
+      </c>
+      <c r="S475" s="8">
+        <v>5</v>
+      </c>
+      <c r="T475" s="8">
+        <v>7</v>
+      </c>
+      <c r="U475" s="8">
+        <v>8</v>
+      </c>
+      <c r="V475" s="8">
+        <v>7</v>
+      </c>
+      <c r="W475" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X475" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y475" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z475" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA475" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="4">
+        <v>45619.70476359954</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D476" s="5">
+        <v>20241224</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J476" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L476" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M476" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O476" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P476" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R476" s="5">
+        <v>5</v>
+      </c>
+      <c r="S476" s="5">
+        <v>6</v>
+      </c>
+      <c r="T476" s="5">
+        <v>6</v>
+      </c>
+      <c r="U476" s="5">
+        <v>8</v>
+      </c>
+      <c r="V476" s="5">
+        <v>4</v>
+      </c>
+      <c r="W476" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X476" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y476" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z476" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA476" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="7">
+        <v>45619.705836180554</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D477" s="8">
+        <v>20231539</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H477" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L477" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M477" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P477" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q477" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R477" s="8">
+        <v>8</v>
+      </c>
+      <c r="S477" s="8">
+        <v>8</v>
+      </c>
+      <c r="T477" s="8">
+        <v>6</v>
+      </c>
+      <c r="U477" s="8">
+        <v>15</v>
+      </c>
+      <c r="V477" s="8">
+        <v>4</v>
+      </c>
+      <c r="W477" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X477" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y477" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z477" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA477" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="4">
+        <v>45619.725899513884</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D478" s="5">
+        <v>20202406</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M478" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N478" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P478" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R478" s="5">
+        <v>8</v>
+      </c>
+      <c r="S478" s="5">
+        <v>7</v>
+      </c>
+      <c r="T478" s="5">
+        <v>6</v>
+      </c>
+      <c r="U478" s="5">
+        <v>7</v>
+      </c>
+      <c r="V478" s="5">
+        <v>9</v>
+      </c>
+      <c r="W478" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X478" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y478" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z478" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA478" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="7">
+        <v>45619.756316076389</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D479" s="8">
+        <v>20191514</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H479" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I479" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L479" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M479" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O479" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P479" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q479" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R479" s="8">
+        <v>4</v>
+      </c>
+      <c r="S479" s="8">
+        <v>5</v>
+      </c>
+      <c r="T479" s="8">
+        <v>9</v>
+      </c>
+      <c r="U479" s="8">
+        <v>10</v>
+      </c>
+      <c r="V479" s="8">
+        <v>4</v>
+      </c>
+      <c r="W479" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X479" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y479" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z479" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA479" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="4">
+        <v>45619.759262847219</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D480" s="5">
+        <v>20241520</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J480" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L480" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N480" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O480" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P480" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q480" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R480" s="5">
+        <v>6</v>
+      </c>
+      <c r="S480" s="5">
+        <v>4</v>
+      </c>
+      <c r="T480" s="5">
+        <v>8</v>
+      </c>
+      <c r="U480" s="5">
+        <v>12</v>
+      </c>
+      <c r="V480" s="5">
+        <v>7</v>
+      </c>
+      <c r="W480" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X480" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y480" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z480" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA480" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="7">
+        <v>45619.767877395832</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D481" s="8">
+        <v>20193420</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G481" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I481" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L481" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M481" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N481" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O481" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P481" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q481" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R481" s="8">
+        <v>4</v>
+      </c>
+      <c r="S481" s="8">
+        <v>6</v>
+      </c>
+      <c r="T481" s="8">
+        <v>8</v>
+      </c>
+      <c r="U481" s="8">
+        <v>15</v>
+      </c>
+      <c r="V481" s="8">
+        <v>9</v>
+      </c>
+      <c r="W481" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X481" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y481" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z481" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA481" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="4">
+        <v>45619.77197530093</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D482" s="5">
+        <v>20213224</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J482" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K482" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L482" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M482" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N482" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O482" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P482" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q482" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R482" s="5">
+        <v>7</v>
+      </c>
+      <c r="S482" s="5">
+        <v>5</v>
+      </c>
+      <c r="T482" s="5">
+        <v>8</v>
+      </c>
+      <c r="U482" s="5">
+        <v>13</v>
+      </c>
+      <c r="V482" s="5">
+        <v>5</v>
+      </c>
+      <c r="W482" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X482" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y482" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z482" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA482" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="7">
+        <v>45619.781126261572</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D483" s="8">
+        <v>20243613</v>
+      </c>
+      <c r="E483" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G483" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L483" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M483" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N483" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R483" s="8">
+        <v>6</v>
+      </c>
+      <c r="S483" s="8">
+        <v>6</v>
+      </c>
+      <c r="T483" s="8">
+        <v>7</v>
+      </c>
+      <c r="U483" s="8">
+        <v>12</v>
+      </c>
+      <c r="V483" s="8">
+        <v>8</v>
+      </c>
+      <c r="W483" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X483" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y483" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z483" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA483" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="4">
+        <v>45619.798131018513</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D484" s="5">
+        <v>20243913</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I484" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L484" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M484" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P484" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q484" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R484" s="5">
+        <v>8</v>
+      </c>
+      <c r="S484" s="5">
+        <v>8</v>
+      </c>
+      <c r="T484" s="5">
+        <v>4</v>
+      </c>
+      <c r="U484" s="5">
+        <v>11</v>
+      </c>
+      <c r="V484" s="5">
+        <v>11</v>
+      </c>
+      <c r="W484" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X484" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y484" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z484" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA484" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="7">
+        <v>45619.803800671296</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D485" s="8">
+        <v>20202719</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J485" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K485" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L485" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N485" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O485" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R485" s="8">
+        <v>5</v>
+      </c>
+      <c r="S485" s="8">
+        <v>6</v>
+      </c>
+      <c r="T485" s="8">
+        <v>5</v>
+      </c>
+      <c r="U485" s="8">
+        <v>4</v>
+      </c>
+      <c r="V485" s="8">
+        <v>6</v>
+      </c>
+      <c r="W485" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X485" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y485" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z485" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA485" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="4">
+        <v>45619.934331435186</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D486" s="5">
+        <v>20243064</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J486" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L486" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M486" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N486" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P486" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q486" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R486" s="5">
+        <v>9</v>
+      </c>
+      <c r="S486" s="5">
+        <v>3</v>
+      </c>
+      <c r="T486" s="5">
+        <v>6</v>
+      </c>
+      <c r="U486" s="5">
+        <v>4</v>
+      </c>
+      <c r="V486" s="5">
+        <v>8</v>
+      </c>
+      <c r="W486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X486" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y486" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z486" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA486" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="7">
+        <v>45619.854514097227</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D487" s="8">
+        <v>20202708</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H487" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M487" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N487" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O487" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P487" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q487" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R487" s="8">
+        <v>4</v>
+      </c>
+      <c r="S487" s="8">
+        <v>5</v>
+      </c>
+      <c r="T487" s="8">
+        <v>6</v>
+      </c>
+      <c r="U487" s="8">
+        <v>8</v>
+      </c>
+      <c r="V487" s="8">
+        <v>9</v>
+      </c>
+      <c r="W487" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X487" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y487" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z487" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA487" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="4">
+        <v>45619.854945659725</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D488" s="5">
+        <v>20243912</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L488" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O488" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P488" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R488" s="5">
+        <v>8</v>
+      </c>
+      <c r="S488" s="5">
+        <v>9</v>
+      </c>
+      <c r="T488" s="5">
+        <v>4</v>
+      </c>
+      <c r="U488" s="5">
+        <v>14</v>
+      </c>
+      <c r="V488" s="5">
+        <v>10</v>
+      </c>
+      <c r="W488" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X488" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y488" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z488" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA488" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="7">
+        <v>45619.871290324074</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D489" s="8">
+        <v>20211059</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F489" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H489" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I489" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L489" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M489" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O489" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P489" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q489" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R489" s="8">
+        <v>4</v>
+      </c>
+      <c r="S489" s="8">
+        <v>6</v>
+      </c>
+      <c r="T489" s="8">
+        <v>5</v>
+      </c>
+      <c r="U489" s="8">
+        <v>4</v>
+      </c>
+      <c r="V489" s="8">
+        <v>3</v>
+      </c>
+      <c r="W489" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X489" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y489" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z489" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA489" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="4">
+        <v>45619.87693893518</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D490" s="5">
+        <v>20242212</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J490" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K490" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L490" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M490" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N490" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O490" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P490" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q490" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R490" s="5">
+        <v>12</v>
+      </c>
+      <c r="S490" s="5">
+        <v>10</v>
+      </c>
+      <c r="T490" s="5">
+        <v>7</v>
+      </c>
+      <c r="U490" s="5">
+        <v>13</v>
+      </c>
+      <c r="V490" s="5">
+        <v>11</v>
+      </c>
+      <c r="W490" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X490" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y490" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z490" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA490" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="7">
+        <v>45619.886591643517</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D491" s="8">
+        <v>20233605</v>
+      </c>
+      <c r="E491" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F491" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G491" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H491" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I491" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J491" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K491" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L491" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M491" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N491" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O491" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P491" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q491" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R491" s="8">
+        <v>5</v>
+      </c>
+      <c r="S491" s="8">
+        <v>10</v>
+      </c>
+      <c r="T491" s="8">
+        <v>7</v>
+      </c>
+      <c r="U491" s="8">
+        <v>12</v>
+      </c>
+      <c r="V491" s="8">
+        <v>8</v>
+      </c>
+      <c r="W491" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X491" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y491" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z491" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA491" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="4">
+        <v>45619.892734305555</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D492" s="5">
+        <v>20205162</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M492" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q492" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R492" s="5">
+        <v>4</v>
+      </c>
+      <c r="S492" s="5">
+        <v>4</v>
+      </c>
+      <c r="T492" s="5">
+        <v>7</v>
+      </c>
+      <c r="U492" s="5">
+        <v>8</v>
+      </c>
+      <c r="V492" s="5">
+        <v>7</v>
+      </c>
+      <c r="W492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y492" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA492" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="7">
+        <v>45619.922369386579</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D493" s="8">
+        <v>20216631</v>
+      </c>
+      <c r="E493" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F493" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G493" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J493" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K493" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L493" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N493" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R493" s="8">
+        <v>9</v>
+      </c>
+      <c r="S493" s="8">
+        <v>7</v>
+      </c>
+      <c r="T493" s="8">
+        <v>10</v>
+      </c>
+      <c r="U493" s="8">
+        <v>14</v>
+      </c>
+      <c r="V493" s="8">
+        <v>11</v>
+      </c>
+      <c r="W493" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X493" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y493" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z493" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA493" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="4">
+        <v>45619.942251840279</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D494" s="5">
+        <v>20232705</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L494" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N494" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q494" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R494" s="5">
+        <v>8</v>
+      </c>
+      <c r="S494" s="5">
+        <v>8</v>
+      </c>
+      <c r="T494" s="5">
+        <v>5</v>
+      </c>
+      <c r="U494" s="5">
+        <v>10</v>
+      </c>
+      <c r="V494" s="5">
+        <v>12</v>
+      </c>
+      <c r="W494" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X494" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y494" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z494" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA494" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="16">
+        <v>45619.942927361109</v>
+      </c>
+      <c r="B495" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C495" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D495" s="17">
+        <v>20242907</v>
+      </c>
+      <c r="E495" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F495" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G495" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H495" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I495" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J495" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K495" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L495" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M495" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N495" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O495" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P495" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q495" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R495" s="17">
+        <v>5</v>
+      </c>
+      <c r="S495" s="17">
+        <v>9</v>
+      </c>
+      <c r="T495" s="17">
+        <v>3</v>
+      </c>
+      <c r="U495" s="17">
+        <v>8</v>
+      </c>
+      <c r="V495" s="17">
+        <v>4</v>
+      </c>
+      <c r="W495" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="X495" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y495" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z495" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA495" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
